--- a/Tournament.xlsx
+++ b/Tournament.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t xml:space="preserve">Aixps: </t>
   </si>
@@ -133,12 +133,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Games</t>
-  </si>
-  <si>
-    <t>Draws</t>
   </si>
 </sst>
 </file>
@@ -664,722 +658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7">
-        <v>55</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>165</v>
-      </c>
-      <c r="G3" s="7">
-        <v>79.967299999999994</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10">
-        <v>54</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10">
-        <v>162</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1278.3076000000001</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10">
-        <v>51</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10">
-        <v>154</v>
-      </c>
-      <c r="G5" s="10">
-        <v>220.3861</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="10">
-        <v>47</v>
-      </c>
-      <c r="D6" s="10">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <v>145</v>
-      </c>
-      <c r="G6" s="10">
-        <v>219.73830000000001</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10">
-        <v>46</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10">
-        <v>142</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1189.6193000000001</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10">
-        <v>42</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3</v>
-      </c>
-      <c r="E8" s="10">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10">
-        <v>129</v>
-      </c>
-      <c r="G8" s="10">
-        <v>9573.9730999999992</v>
-      </c>
-      <c r="H8" s="11">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>14</v>
-      </c>
-      <c r="F9" s="10">
-        <v>124</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1042.3308</v>
-      </c>
-      <c r="H9" s="11">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>38</v>
-      </c>
-      <c r="D10" s="10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="10">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10">
-        <v>123</v>
-      </c>
-      <c r="G10" s="10">
-        <v>354.64120000000003</v>
-      </c>
-      <c r="H10" s="11">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="10">
-        <v>39</v>
-      </c>
-      <c r="D11" s="10">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10">
-        <v>122</v>
-      </c>
-      <c r="G11" s="10">
-        <v>9544.0563000000002</v>
-      </c>
-      <c r="H11" s="11">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10">
-        <v>38</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2</v>
-      </c>
-      <c r="E12" s="10">
-        <v>16</v>
-      </c>
-      <c r="F12" s="10">
-        <v>116</v>
-      </c>
-      <c r="G12" s="10">
-        <v>9566.3852000000006</v>
-      </c>
-      <c r="H12" s="11">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="10">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>17</v>
-      </c>
-      <c r="F13" s="10">
-        <v>113</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1143.1822</v>
-      </c>
-      <c r="H13" s="11">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="10">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>22</v>
-      </c>
-      <c r="F14" s="10">
-        <v>100</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1669.5843</v>
-      </c>
-      <c r="H14" s="11">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10">
-        <v>27</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>29</v>
-      </c>
-      <c r="F15" s="10">
-        <v>81</v>
-      </c>
-      <c r="G15" s="10">
-        <v>380.66930000000002</v>
-      </c>
-      <c r="H15" s="11">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2</v>
-      </c>
-      <c r="E16" s="10">
-        <v>28</v>
-      </c>
-      <c r="F16" s="10">
-        <v>80</v>
-      </c>
-      <c r="G16" s="10">
-        <v>372.18770000000001</v>
-      </c>
-      <c r="H16" s="11">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>24</v>
-      </c>
-      <c r="D17" s="10">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10">
-        <v>26</v>
-      </c>
-      <c r="F17" s="10">
-        <v>78</v>
-      </c>
-      <c r="G17" s="10">
-        <v>197.666</v>
-      </c>
-      <c r="H17" s="11">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="10">
-        <v>25</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
-      <c r="E18" s="10">
-        <v>29</v>
-      </c>
-      <c r="F18" s="10">
-        <v>77</v>
-      </c>
-      <c r="G18" s="10">
-        <v>378.95209999999997</v>
-      </c>
-      <c r="H18" s="11">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
-        <v>24</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>31</v>
-      </c>
-      <c r="F19" s="10">
-        <v>73</v>
-      </c>
-      <c r="G19" s="10">
-        <v>382.68630000000002</v>
-      </c>
-      <c r="H19" s="11">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="10">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>32</v>
-      </c>
-      <c r="F20" s="10">
-        <v>70</v>
-      </c>
-      <c r="G20" s="10">
-        <v>379.51330000000002</v>
-      </c>
-      <c r="H20" s="11">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="10">
-        <v>21</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>35</v>
-      </c>
-      <c r="F21" s="10">
-        <v>63</v>
-      </c>
-      <c r="G21" s="10">
-        <v>266.55250000000001</v>
-      </c>
-      <c r="H21" s="11">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2</v>
-      </c>
-      <c r="E22" s="10">
-        <v>37</v>
-      </c>
-      <c r="F22" s="10">
-        <v>53</v>
-      </c>
-      <c r="G22" s="10">
-        <v>253.73759999999999</v>
-      </c>
-      <c r="H22" s="11">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10">
-        <v>16</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>39</v>
-      </c>
-      <c r="F23" s="10">
-        <v>49</v>
-      </c>
-      <c r="G23" s="10">
-        <v>499.12670000000003</v>
-      </c>
-      <c r="H23" s="11">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="10">
-        <v>15</v>
-      </c>
-      <c r="D24" s="10">
-        <v>3</v>
-      </c>
-      <c r="E24" s="10">
-        <v>38</v>
-      </c>
-      <c r="F24" s="10">
-        <v>48</v>
-      </c>
-      <c r="G24" s="10">
-        <v>607.11369999999999</v>
-      </c>
-      <c r="H24" s="11">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="10">
-        <v>13</v>
-      </c>
-      <c r="D25" s="10">
-        <v>3</v>
-      </c>
-      <c r="E25" s="10">
-        <v>40</v>
-      </c>
-      <c r="F25" s="10">
-        <v>42</v>
-      </c>
-      <c r="G25" s="10">
-        <v>516.63340000000005</v>
-      </c>
-      <c r="H25" s="11">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="10">
-        <v>13</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10">
-        <v>42</v>
-      </c>
-      <c r="F26" s="10">
-        <v>40</v>
-      </c>
-      <c r="G26" s="10">
-        <v>345.22019999999998</v>
-      </c>
-      <c r="H26" s="11">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10">
-        <v>7</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
-      <c r="E27" s="10">
-        <v>49</v>
-      </c>
-      <c r="F27" s="10">
-        <v>21</v>
-      </c>
-      <c r="G27" s="10">
-        <v>350.18310000000002</v>
-      </c>
-      <c r="H27" s="11">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="10">
-        <v>6</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>49</v>
-      </c>
-      <c r="F28" s="10">
-        <v>19</v>
-      </c>
-      <c r="G28" s="10">
-        <v>740.58950000000004</v>
-      </c>
-      <c r="H28" s="11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="10">
-        <v>4</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>51</v>
-      </c>
-      <c r="F29" s="10">
-        <v>13</v>
-      </c>
-      <c r="G29" s="10">
-        <v>807.05489999999998</v>
-      </c>
-      <c r="H29" s="11">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="10">
-        <v>2</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>54</v>
-      </c>
-      <c r="F30" s="10">
-        <v>6</v>
-      </c>
-      <c r="G30" s="10">
-        <v>659.58029999999997</v>
-      </c>
-      <c r="H30" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>56</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0</v>
-      </c>
-      <c r="G31" s="13">
-        <v>159.548</v>
-      </c>
-      <c r="H31" s="14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="B3:H31">
-    <sortCondition descending="1" ref="F3:F31"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1394,10 +675,10 @@
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>31</v>
@@ -1414,674 +695,1389 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7">
-        <v>333</v>
+        <v>53</v>
       </c>
       <c r="G3" s="7">
-        <v>154.97319999999999</v>
+        <v>253.73759999999999</v>
       </c>
       <c r="H3" s="8">
-        <v>3955</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" s="10">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="D4" s="10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4" s="10">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F4" s="10">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="G4" s="10">
-        <v>2512.0868</v>
+        <v>197.666</v>
       </c>
       <c r="H4" s="11">
-        <v>3018</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C5" s="10">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="10">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="G5" s="10">
-        <v>420.70269999999999</v>
+        <v>354.64120000000003</v>
       </c>
       <c r="H5" s="11">
-        <v>2160</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C6" s="10">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D6" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F6" s="10">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="G6" s="10">
-        <v>421.23009999999999</v>
+        <v>350.18310000000002</v>
       </c>
       <c r="H6" s="11">
-        <v>2280</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="10">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" s="10">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="G7" s="10">
-        <v>2211.7401</v>
+        <v>1042.3308</v>
       </c>
       <c r="H7" s="11">
-        <v>3550</v>
+        <v>895</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D8" s="10">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8" s="10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="10">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="G8" s="10">
-        <v>18968.4588</v>
+        <v>1143.1822</v>
       </c>
       <c r="H8" s="11">
-        <v>1735</v>
+        <v>547</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>46</v>
+      </c>
+      <c r="D9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
-        <v>80</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3</v>
-      </c>
       <c r="E9" s="10">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F9" s="10">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="G9" s="10">
-        <v>2084.6615999999999</v>
+        <v>1189.6193000000001</v>
       </c>
       <c r="H9" s="11">
-        <v>1840</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>33</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>22</v>
       </c>
-      <c r="C10" s="10">
-        <v>77</v>
-      </c>
-      <c r="D10" s="10">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10">
-        <v>24</v>
-      </c>
       <c r="F10" s="10">
-        <v>242</v>
+        <v>100</v>
       </c>
       <c r="G10" s="10">
-        <v>18902.9512</v>
+        <v>1669.5843</v>
       </c>
       <c r="H10" s="11">
-        <v>1504</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
         <v>21</v>
       </c>
-      <c r="C11" s="10">
-        <v>78</v>
-      </c>
       <c r="D11" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11" s="10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F11" s="10">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10">
-        <v>18954.547900000001</v>
+        <v>266.55250000000001</v>
       </c>
       <c r="H11" s="11">
-        <v>1620</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>54</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
-        <v>73</v>
-      </c>
-      <c r="D12" s="10">
-        <v>15</v>
-      </c>
-      <c r="E12" s="10">
-        <v>24</v>
-      </c>
       <c r="F12" s="10">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="G12" s="10">
-        <v>695.15380000000005</v>
+        <v>1278.3076000000001</v>
       </c>
       <c r="H12" s="11">
-        <v>1351</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D13" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="G13" s="10">
-        <v>2104.0255999999999</v>
+        <v>378.95209999999997</v>
       </c>
       <c r="H13" s="11">
-        <v>1128</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F14" s="10">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="G14" s="10">
-        <v>3092.7064999999998</v>
+        <v>380.66930000000002</v>
       </c>
       <c r="H14" s="11">
-        <v>1726</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="10">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="G15" s="10">
-        <v>732.76020000000005</v>
+        <v>372.18770000000001</v>
       </c>
       <c r="H15" s="11">
-        <v>1779</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="10">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="10">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F16" s="10">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="G16" s="10">
-        <v>734.58929999999998</v>
+        <v>379.51330000000002</v>
       </c>
       <c r="H16" s="11">
-        <v>1836</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="10">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D17" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" s="10">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F17" s="10">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="G17" s="10">
-        <v>725.08860000000004</v>
+        <v>382.68630000000002</v>
       </c>
       <c r="H17" s="11">
-        <v>1741</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="10">
-        <v>46</v>
-      </c>
-      <c r="D18" s="10">
-        <v>11</v>
-      </c>
       <c r="E18" s="10">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F18" s="10">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="G18" s="10">
-        <v>391.85120000000001</v>
+        <v>499.12670000000003</v>
       </c>
       <c r="H18" s="11">
-        <v>341</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>51</v>
+      </c>
+      <c r="F19" s="10">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10">
+        <v>807.05489999999998</v>
+      </c>
+      <c r="H19" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
+        <v>6</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>49</v>
+      </c>
+      <c r="F20" s="10">
+        <v>19</v>
+      </c>
+      <c r="G20" s="10">
+        <v>740.58950000000004</v>
+      </c>
+      <c r="H20" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>47</v>
+      </c>
+      <c r="D21" s="10">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10">
+        <v>145</v>
+      </c>
+      <c r="G21" s="10">
+        <v>219.73830000000001</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="10">
+        <v>51</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10">
+        <v>154</v>
+      </c>
+      <c r="G22" s="10">
+        <v>220.3861</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>54</v>
+      </c>
+      <c r="F23" s="10">
+        <v>6</v>
+      </c>
+      <c r="G23" s="10">
+        <v>659.58029999999997</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="10">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>16</v>
+      </c>
+      <c r="F24" s="10">
+        <v>116</v>
+      </c>
+      <c r="G24" s="10">
+        <v>9566.3852000000006</v>
+      </c>
+      <c r="H24" s="11">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>39</v>
+      </c>
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10">
+        <v>122</v>
+      </c>
+      <c r="G25" s="10">
+        <v>9544.0563000000002</v>
+      </c>
+      <c r="H25" s="11">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="10">
+        <v>42</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10">
+        <v>11</v>
+      </c>
+      <c r="F26" s="10">
+        <v>129</v>
+      </c>
+      <c r="G26" s="10">
+        <v>9573.9730999999992</v>
+      </c>
+      <c r="H26" s="11">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>56</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>159.548</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10">
+        <v>55</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>165</v>
+      </c>
+      <c r="G28" s="10">
+        <v>79.967299999999994</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="10">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>42</v>
+      </c>
+      <c r="F29" s="10">
+        <v>40</v>
+      </c>
+      <c r="G29" s="10">
+        <v>345.22019999999998</v>
+      </c>
+      <c r="H29" s="11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10">
+        <v>15</v>
+      </c>
+      <c r="D30" s="10">
+        <v>3</v>
+      </c>
+      <c r="E30" s="10">
+        <v>38</v>
+      </c>
+      <c r="F30" s="10">
+        <v>48</v>
+      </c>
+      <c r="G30" s="10">
+        <v>607.11369999999999</v>
+      </c>
+      <c r="H30" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="13">
+        <v>13</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13">
+        <v>40</v>
+      </c>
+      <c r="F31" s="13">
+        <v>42</v>
+      </c>
+      <c r="G31" s="13">
+        <v>516.63340000000005</v>
+      </c>
+      <c r="H31" s="14">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B3:H31">
+    <sortCondition ref="B3:B31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.85546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>74</v>
+      </c>
+      <c r="F3" s="7">
+        <v>108</v>
+      </c>
+      <c r="G3" s="7">
+        <v>500.0874</v>
+      </c>
+      <c r="H3" s="8">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10">
+        <v>55</v>
+      </c>
+      <c r="F4" s="10">
+        <v>149</v>
+      </c>
+      <c r="G4" s="10">
+        <v>391.85120000000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>73</v>
+      </c>
+      <c r="D5" s="10">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10">
+        <v>234</v>
+      </c>
+      <c r="G5" s="10">
+        <v>695.15380000000005</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10">
+        <v>36</v>
+      </c>
+      <c r="G6" s="10">
+        <v>683.29909999999995</v>
+      </c>
+      <c r="H6" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10">
+        <v>80</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>29</v>
+      </c>
+      <c r="F7" s="10">
+        <v>243</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2084.6615999999999</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10">
+        <v>75</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10">
+        <v>228</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2104.0255999999999</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>94</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>13</v>
+      </c>
+      <c r="F9" s="10">
+        <v>287</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2211.7401</v>
+      </c>
+      <c r="H9" s="11">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>45</v>
+      </c>
+      <c r="F10" s="10">
+        <v>199</v>
+      </c>
+      <c r="G10" s="10">
+        <v>3092.7064999999998</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>70</v>
+      </c>
+      <c r="F11" s="10">
+        <v>124</v>
+      </c>
+      <c r="G11" s="10">
+        <v>493.26949999999999</v>
+      </c>
+      <c r="H11" s="11">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>108</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>324</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2512.0868</v>
+      </c>
+      <c r="H12" s="11">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>54</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>53</v>
+      </c>
+      <c r="F13" s="10">
+        <v>167</v>
+      </c>
+      <c r="G13" s="10">
+        <v>732.76020000000005</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10">
+        <v>54</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>56</v>
+      </c>
+      <c r="F14" s="10">
+        <v>164</v>
+      </c>
+      <c r="G14" s="10">
+        <v>734.58929999999998</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4</v>
+      </c>
+      <c r="E15" s="10">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10">
+        <v>154</v>
+      </c>
+      <c r="G15" s="10">
+        <v>725.08860000000004</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10">
+        <v>64</v>
+      </c>
+      <c r="F16" s="10">
+        <v>136</v>
+      </c>
+      <c r="G16" s="10">
+        <v>725.70650000000001</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="C17" s="10">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>61</v>
+      </c>
+      <c r="F17" s="10">
+        <v>149</v>
+      </c>
+      <c r="G17" s="10">
+        <v>740.19539999999995</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>29</v>
+      </c>
+      <c r="D18" s="10">
+        <v>4</v>
+      </c>
+      <c r="E18" s="10">
+        <v>79</v>
+      </c>
+      <c r="F18" s="10">
+        <v>91</v>
+      </c>
+      <c r="G18" s="10">
+        <v>973.71929999999998</v>
+      </c>
+      <c r="H18" s="11">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="C19" s="10">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
       </c>
       <c r="E19" s="10">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F19" s="10">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="G19" s="10">
-        <v>740.19539999999995</v>
+        <v>1547.9215999999999</v>
       </c>
       <c r="H19" s="11">
-        <v>1695</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="10">
         <v>13</v>
       </c>
-      <c r="C20" s="10">
-        <v>44</v>
-      </c>
       <c r="D20" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="10">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F20" s="10">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="G20" s="10">
-        <v>725.70650000000001</v>
+        <v>1418.3081999999999</v>
       </c>
       <c r="H20" s="11">
-        <v>1644</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="10">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D21" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="10">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F21" s="10">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="G21" s="10">
-        <v>493.26949999999999</v>
+        <v>421.23009999999999</v>
       </c>
       <c r="H21" s="11">
-        <v>614</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C22" s="10">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" s="10">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="F22" s="10">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="G22" s="10">
-        <v>500.0874</v>
+        <v>420.70269999999999</v>
       </c>
       <c r="H22" s="11">
-        <v>969</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" s="10">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D23" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23" s="10">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="F23" s="10">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="G23" s="10">
-        <v>1196.8168000000001</v>
+        <v>1253.239</v>
       </c>
       <c r="H23" s="11">
-        <v>406</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" s="10">
+        <v>78</v>
+      </c>
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10">
         <v>29</v>
       </c>
-      <c r="D24" s="10">
-        <v>4</v>
-      </c>
-      <c r="E24" s="10">
-        <v>79</v>
-      </c>
       <c r="F24" s="10">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="G24" s="10">
-        <v>973.71929999999998</v>
+        <v>18954.547900000001</v>
       </c>
       <c r="H24" s="11">
-        <v>347</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="10">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D25" s="10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E25" s="10">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F25" s="10">
-        <v>89</v>
+        <v>242</v>
       </c>
       <c r="G25" s="10">
-        <v>670.39110000000005</v>
+        <v>18902.9512</v>
       </c>
       <c r="H25" s="11">
-        <v>547</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" s="10">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="D26" s="10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F26" s="10">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="G26" s="10">
-        <v>954.36770000000001</v>
+        <v>18968.4588</v>
       </c>
       <c r="H26" s="11">
-        <v>508</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C27" s="10">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F27" s="10">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="G27" s="10">
-        <v>1418.3081999999999</v>
+        <v>289.90100000000001</v>
       </c>
       <c r="H27" s="11">
-        <v>426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C28" s="10">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D28" s="10">
         <v>0</v>
       </c>
       <c r="E28" s="10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F28" s="10">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="G28" s="10">
-        <v>683.29909999999995</v>
+        <v>154.97319999999999</v>
       </c>
       <c r="H28" s="11">
-        <v>224</v>
+        <v>3955</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C29" s="10">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
       </c>
       <c r="E29" s="10">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F29" s="10">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="G29" s="10">
-        <v>1547.9215999999999</v>
+        <v>670.39110000000005</v>
       </c>
       <c r="H29" s="11">
-        <v>146</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C30" s="10">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D30" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E30" s="10">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F30" s="10">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G30" s="10">
-        <v>1253.239</v>
+        <v>1196.8168000000001</v>
       </c>
       <c r="H30" s="11">
-        <v>4</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31" s="13">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D31" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" s="13">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F31" s="13">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="G31" s="13">
-        <v>289.90100000000001</v>
+        <v>954.36770000000001</v>
       </c>
       <c r="H31" s="14">
-        <v>1</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B3:H31">
-    <sortCondition descending="1" ref="F3:F31"/>
+    <sortCondition ref="B3:B31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
